--- a/data/trans_orig/P1413-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1413-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{861E2542-F49C-483E-8C5E-ABFD42BA3EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1975CC82-6C55-431A-8F83-AA212E1099EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F906FD6D-3788-41B1-9ABB-BE7A7684F365}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{35A2A145-CD81-4D04-8E3B-50F8C99C9811}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="333">
   <si>
     <t>Población con diagnóstico de dolor de espalda en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -98,25 +98,25 @@
     <t>23,18%</t>
   </si>
   <si>
-    <t>28,46%</t>
+    <t>28,38%</t>
   </si>
   <si>
     <t>29,43%</t>
   </si>
   <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
   </si>
   <si>
     <t>27,84%</t>
   </si>
   <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,7 +125,7 @@
     <t>74,18%</t>
   </si>
   <si>
-    <t>71,54%</t>
+    <t>71,62%</t>
   </si>
   <si>
     <t>76,82%</t>
@@ -134,19 +134,19 @@
     <t>70,57%</t>
   </si>
   <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
   </si>
   <si>
     <t>72,16%</t>
   </si>
   <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,55 +164,55 @@
     <t>12,0%</t>
   </si>
   <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
   </si>
   <si>
     <t>13,49%</t>
   </si>
   <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
   </si>
   <si>
     <t>12,72%</t>
   </si>
   <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
   </si>
   <si>
     <t>88,0%</t>
   </si>
   <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
   </si>
   <si>
     <t>86,51%</t>
   </si>
   <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
   </si>
   <si>
     <t>87,28%</t>
   </si>
   <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -230,403 +230,415 @@
     <t>11,01%</t>
   </si>
   <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor de espalda en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
     <t>8,4%</t>
   </si>
   <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
   </si>
   <si>
     <t>91,6%</t>
   </si>
   <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor de espalda en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor de espalda en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
   </si>
   <si>
     <t>20,46%</t>
   </si>
   <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
   </si>
   <si>
     <t>79,54%</t>
   </si>
   <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor de espalda en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
+    <t>83,41%</t>
   </si>
   <si>
     <t>0,05%</t>
@@ -635,55 +647,55 @@
     <t>6,89%</t>
   </si>
   <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
   </si>
   <si>
     <t>11,4%</t>
   </si>
   <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
   </si>
   <si>
     <t>9,09%</t>
   </si>
   <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
   </si>
   <si>
     <t>93,11%</t>
   </si>
   <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
   </si>
   <si>
     <t>88,6%</t>
   </si>
   <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
   </si>
   <si>
     <t>90,91%</t>
   </si>
   <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
   </si>
   <si>
     <t>0,38%</t>
@@ -695,76 +707,73 @@
     <t>6,33%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
   </si>
   <si>
     <t>7,17%</t>
   </si>
   <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
   </si>
   <si>
     <t>93,67%</t>
   </si>
   <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
   </si>
   <si>
     <t>92,83%</t>
   </si>
   <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
   </si>
   <si>
     <t>8,22%</t>
   </si>
   <si>
-    <t>7,3%</t>
-  </si>
-  <si>
     <t>9,18%</t>
   </si>
   <si>
     <t>13,92%</t>
   </si>
   <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
   </si>
   <si>
     <t>11,13%</t>
   </si>
   <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
   </si>
   <si>
     <t>91,78%</t>
@@ -773,25 +782,22 @@
     <t>90,82%</t>
   </si>
   <si>
-    <t>92,7%</t>
-  </si>
-  <si>
     <t>86,08%</t>
   </si>
   <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
   </si>
   <si>
     <t>88,87%</t>
   </si>
   <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
   </si>
   <si>
     <t>Población con diagnóstico de dolor de espalda en 2023 (Tasa respuesta: 99,91%)</t>
@@ -803,67 +809,64 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
   </si>
   <si>
     <t>33,66%</t>
   </si>
   <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
   </si>
   <si>
     <t>51,78%</t>
   </si>
   <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
   </si>
   <si>
     <t>44,66%</t>
   </si>
   <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
   </si>
   <si>
     <t>66,34%</t>
   </si>
   <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
   </si>
   <si>
     <t>47,89%</t>
   </si>
   <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
   </si>
   <si>
     <t>55,14%</t>
   </si>
   <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
   </si>
   <si>
     <t>0,02%</t>
@@ -872,55 +875,55 @@
     <t>16,86%</t>
   </si>
   <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
   </si>
   <si>
     <t>29,09%</t>
   </si>
   <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
   </si>
   <si>
     <t>23,1%</t>
   </si>
   <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
   </si>
   <si>
     <t>83,14%</t>
   </si>
   <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
   </si>
   <si>
     <t>70,88%</t>
   </si>
   <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
   </si>
   <si>
     <t>76,89%</t>
   </si>
   <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
   </si>
   <si>
     <t>0,11%</t>
@@ -929,73 +932,76 @@
     <t>13,12%</t>
   </si>
   <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
   </si>
   <si>
     <t>21,39%</t>
   </si>
   <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
   </si>
   <si>
     <t>17,38%</t>
   </si>
   <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
   </si>
   <si>
     <t>86,88%</t>
   </si>
   <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
   </si>
   <si>
     <t>78,61%</t>
   </si>
   <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
   </si>
   <si>
     <t>82,62%</t>
   </si>
   <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
   </si>
   <si>
     <t>18,81%</t>
   </si>
   <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
   </si>
   <si>
     <t>32,64%</t>
   </si>
   <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
   </si>
   <si>
     <t>26,13%</t>
@@ -1004,34 +1010,34 @@
     <t>24,65%</t>
   </si>
   <si>
-    <t>30,36%</t>
+    <t>30,22%</t>
   </si>
   <si>
     <t>81,19%</t>
   </si>
   <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
   </si>
   <si>
     <t>67,27%</t>
   </si>
   <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
   </si>
   <si>
     <t>73,82%</t>
   </si>
   <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
   </si>
 </sst>
 </file>
@@ -1443,7 +1449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F7A6EF-906E-4924-9CAE-89F3AF5F1DDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D56372-3B3B-4639-B50B-9491F8D7BDDD}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2314,7 +2320,7 @@
         <v>5335</v>
       </c>
       <c r="N18" s="7">
-        <v>5475273</v>
+        <v>5475274</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>96</v>
@@ -2365,7 +2371,7 @@
         <v>6511</v>
       </c>
       <c r="N19" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -2398,7 +2404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1233D01E-E4FB-45F0-B57C-0BEDDFF896F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B84DF61-EE33-4302-A993-B410D24D2358}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2576,10 +2582,10 @@
         <v>103</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H5" s="7">
         <v>337</v>
@@ -2588,13 +2594,13 @@
         <v>360566</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M5" s="7">
         <v>481</v>
@@ -2603,13 +2609,13 @@
         <v>513580</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2624,13 +2630,13 @@
         <v>821629</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="H6" s="7">
         <v>910</v>
@@ -2639,13 +2645,13 @@
         <v>977230</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M6" s="7">
         <v>1674</v>
@@ -2654,13 +2660,13 @@
         <v>1798860</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2734,7 +2740,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2779,13 +2785,13 @@
         <v>132586</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H9" s="7">
         <v>212</v>
@@ -2794,13 +2800,13 @@
         <v>233855</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M9" s="7">
         <v>335</v>
@@ -2809,13 +2815,13 @@
         <v>366441</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2830,13 +2836,13 @@
         <v>1831371</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H10" s="7">
         <v>1421</v>
@@ -2845,28 +2851,28 @@
         <v>1520737</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M10" s="7">
         <v>3154</v>
       </c>
       <c r="N10" s="7">
-        <v>3352109</v>
+        <v>3352108</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,7 +2914,7 @@
         <v>3489</v>
       </c>
       <c r="N11" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -2940,7 +2946,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2955,7 +2961,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2970,7 +2976,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2985,13 +2991,13 @@
         <v>22627</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -3000,13 +3006,13 @@
         <v>51125</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>64</v>
@@ -3015,13 +3021,13 @@
         <v>73752</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,13 +3042,13 @@
         <v>458554</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>368</v>
@@ -3051,13 +3057,13 @@
         <v>407506</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>786</v>
@@ -3066,13 +3072,13 @@
         <v>866060</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3197,13 @@
         <v>308227</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H17" s="7">
         <v>593</v>
@@ -3206,13 +3212,13 @@
         <v>645546</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M17" s="7">
         <v>880</v>
@@ -3221,13 +3227,13 @@
         <v>953773</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,13 +3248,13 @@
         <v>3111555</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="H18" s="7">
         <v>2699</v>
@@ -3257,28 +3263,28 @@
         <v>2905474</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M18" s="7">
         <v>5614</v>
       </c>
       <c r="N18" s="7">
-        <v>6017028</v>
+        <v>6017029</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,7 +3326,7 @@
         <v>6494</v>
       </c>
       <c r="N19" s="7">
-        <v>6970801</v>
+        <v>6970802</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -3353,7 +3359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBDEC8FD-CBFB-4FEC-B277-6B964AA2F1F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B16DD9B-E83C-441A-88EC-116FCA647D58}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3370,7 +3376,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3483,7 +3489,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3498,7 +3504,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3528,13 +3534,13 @@
         <v>99912</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>197</v>
@@ -3543,13 +3549,13 @@
         <v>225642</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M5" s="7">
         <v>299</v>
@@ -3558,13 +3564,13 @@
         <v>325555</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3579,13 +3585,13 @@
         <v>654435</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H6" s="7">
         <v>695</v>
@@ -3594,13 +3600,13 @@
         <v>769018</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M6" s="7">
         <v>1355</v>
@@ -3609,13 +3615,13 @@
         <v>1423452</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,7 +3695,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3704,7 +3710,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3719,7 +3725,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,13 +3740,13 @@
         <v>142977</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H9" s="7">
         <v>208</v>
@@ -3749,13 +3755,13 @@
         <v>226667</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M9" s="7">
         <v>340</v>
@@ -3764,13 +3770,13 @@
         <v>369644</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,13 +3791,13 @@
         <v>1933408</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H10" s="7">
         <v>1700</v>
@@ -3800,13 +3806,13 @@
         <v>1761633</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M10" s="7">
         <v>3520</v>
@@ -3815,13 +3821,13 @@
         <v>3695041</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,7 +3901,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3925,7 +3931,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3940,13 +3946,13 @@
         <v>34600</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -3955,13 +3961,13 @@
         <v>39392</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -3970,13 +3976,13 @@
         <v>73991</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3991,13 +3997,13 @@
         <v>512286</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="H14" s="7">
         <v>489</v>
@@ -4006,13 +4012,13 @@
         <v>509748</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M14" s="7">
         <v>961</v>
@@ -4021,13 +4027,13 @@
         <v>1022035</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,13 +4152,13 @@
         <v>277488</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>234</v>
+        <v>145</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H17" s="7">
         <v>442</v>
@@ -4161,13 +4167,13 @@
         <v>491701</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M17" s="7">
         <v>705</v>
@@ -4176,13 +4182,13 @@
         <v>769190</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4197,13 +4203,13 @@
         <v>3100130</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>244</v>
+        <v>153</v>
       </c>
       <c r="H18" s="7">
         <v>2884</v>
@@ -4212,13 +4218,13 @@
         <v>3040399</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M18" s="7">
         <v>5836</v>
@@ -4227,13 +4233,13 @@
         <v>6140528</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,7 +4314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C85F8A-CFCF-45BD-9FC8-8B0950D5B5C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D68AEF71-7FDA-439C-8E47-0AA8AD2972FA}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4325,7 +4331,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4438,7 +4444,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4447,13 +4453,13 @@
         <v>2762</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4468,7 +4474,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,13 +4489,13 @@
         <v>181929</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H5" s="7">
         <v>759</v>
@@ -4498,13 +4504,13 @@
         <v>432855</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M5" s="7">
         <v>1004</v>
@@ -4513,13 +4519,13 @@
         <v>614784</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4534,13 +4540,13 @@
         <v>358634</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H6" s="7">
         <v>667</v>
@@ -4549,13 +4555,13 @@
         <v>400336</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M6" s="7">
         <v>1112</v>
@@ -4564,13 +4570,13 @@
         <v>758970</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,7 +4650,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4659,7 +4665,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>274</v>
+        <v>14</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4668,13 +4674,13 @@
         <v>718</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4689,13 +4695,13 @@
         <v>363774</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H9" s="7">
         <v>823</v>
@@ -4704,13 +4710,13 @@
         <v>653937</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M9" s="7">
         <v>1214</v>
@@ -4719,13 +4725,13 @@
         <v>1017711</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4740,13 +4746,13 @@
         <v>1794464</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H10" s="7">
         <v>2095</v>
@@ -4755,13 +4761,13 @@
         <v>1593453</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M10" s="7">
         <v>3693</v>
@@ -4770,13 +4776,13 @@
         <v>3387918</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,7 +4856,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4865,7 +4871,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4880,7 +4886,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4895,13 +4901,13 @@
         <v>88180</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H13" s="7">
         <v>234</v>
@@ -4910,13 +4916,13 @@
         <v>152696</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M13" s="7">
         <v>331</v>
@@ -4925,13 +4931,13 @@
         <v>240876</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4946,13 +4952,13 @@
         <v>583719</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H14" s="7">
         <v>769</v>
@@ -4961,13 +4967,13 @@
         <v>561031</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M14" s="7">
         <v>1352</v>
@@ -4976,13 +4982,13 @@
         <v>1144750</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,7 +5077,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>138</v>
+        <v>314</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5080,13 +5086,13 @@
         <v>3480</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,13 +5107,13 @@
         <v>633883</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H17" s="7">
         <v>1816</v>
@@ -5116,13 +5122,13 @@
         <v>1239489</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M17" s="7">
         <v>2549</v>
@@ -5131,13 +5137,13 @@
         <v>1873372</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5152,28 +5158,28 @@
         <v>2736817</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H18" s="7">
         <v>3531</v>
       </c>
       <c r="I18" s="7">
-        <v>2554819</v>
+        <v>2554820</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M18" s="7">
         <v>6157</v>
@@ -5182,13 +5188,13 @@
         <v>5291637</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,7 +5221,7 @@
         <v>5349</v>
       </c>
       <c r="I19" s="7">
-        <v>3797788</v>
+        <v>3797789</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>

--- a/data/trans_orig/P1413-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1413-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1975CC82-6C55-431A-8F83-AA212E1099EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{538B2633-94C5-43E6-A463-935E06310A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{35A2A145-CD81-4D04-8E3B-50F8C99C9811}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{97D49E85-508A-49AD-BE58-F76C0998BBBC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="329">
   <si>
     <t>Población con diagnóstico de dolor de espalda en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,28 +95,28 @@
     <t>25,82%</t>
   </si>
   <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
   </si>
   <si>
     <t>29,43%</t>
   </si>
   <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
   </si>
   <si>
     <t>27,84%</t>
   </si>
   <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,28 +125,28 @@
     <t>74,18%</t>
   </si>
   <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
   </si>
   <si>
     <t>70,57%</t>
   </si>
   <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
   </si>
   <si>
     <t>72,16%</t>
   </si>
   <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,25 +164,25 @@
     <t>12,0%</t>
   </si>
   <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
   </si>
   <si>
     <t>13,49%</t>
   </si>
   <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
   </si>
   <si>
     <t>12,72%</t>
   </si>
   <si>
-    <t>11,65%</t>
+    <t>11,63%</t>
   </si>
   <si>
     <t>14,0%</t>
@@ -191,19 +191,19 @@
     <t>88,0%</t>
   </si>
   <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
   </si>
   <si>
     <t>86,51%</t>
   </si>
   <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
   </si>
   <si>
     <t>87,28%</t>
@@ -212,7 +212,7 @@
     <t>86,0%</t>
   </si>
   <si>
-    <t>88,35%</t>
+    <t>88,37%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -230,19 +230,16 @@
     <t>11,01%</t>
   </si>
   <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
   </si>
   <si>
     <t>10,68%</t>
@@ -251,31 +248,28 @@
     <t>8,84%</t>
   </si>
   <si>
-    <t>12,99%</t>
+    <t>12,9%</t>
   </si>
   <si>
     <t>88,99%</t>
   </si>
   <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
   </si>
   <si>
     <t>89,32%</t>
   </si>
   <si>
-    <t>87,01%</t>
+    <t>87,1%</t>
   </si>
   <si>
     <t>91,16%</t>
@@ -287,25 +281,25 @@
     <t>16,18%</t>
   </si>
   <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
   </si>
   <si>
     <t>19,24%</t>
   </si>
   <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
   </si>
   <si>
     <t>17,74%</t>
   </si>
   <si>
-    <t>16,77%</t>
+    <t>16,82%</t>
   </si>
   <si>
     <t>18,72%</t>
@@ -314,19 +308,19 @@
     <t>83,82%</t>
   </si>
   <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
   </si>
   <si>
     <t>80,76%</t>
   </si>
   <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
   </si>
   <si>
     <t>82,26%</t>
@@ -335,7 +329,7 @@
     <t>81,28%</t>
   </si>
   <si>
-    <t>83,23%</t>
+    <t>83,18%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -353,55 +347,49 @@
     <t>15,7%</t>
   </si>
   <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
+    <t>18,37%</t>
   </si>
   <si>
     <t>26,95%</t>
   </si>
   <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
   </si>
   <si>
     <t>22,21%</t>
   </si>
   <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
   </si>
   <si>
     <t>84,3%</t>
   </si>
   <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
+    <t>81,63%</t>
   </si>
   <si>
     <t>73,05%</t>
   </si>
   <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
   </si>
   <si>
     <t>77,79%</t>
   </si>
   <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
   </si>
   <si>
     <t>0,1%</t>
@@ -410,292 +398,286 @@
     <t>6,75%</t>
   </si>
   <si>
-    <t>5,64%</t>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor de espalda en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
   </si>
   <si>
     <t>8,08%</t>
   </si>
   <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
   </si>
   <si>
     <t>91,92%</t>
   </si>
   <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor de espalda en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
+    <t>94,29%</t>
   </si>
   <si>
     <t>88,6%</t>
   </si>
   <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
   </si>
   <si>
     <t>90,91%</t>
   </si>
   <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
   </si>
   <si>
     <t>0,38%</t>
@@ -707,97 +689,103 @@
     <t>6,33%</t>
   </si>
   <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
   </si>
   <si>
     <t>7,17%</t>
   </si>
   <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
   </si>
   <si>
     <t>93,67%</t>
   </si>
   <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
   </si>
   <si>
     <t>92,83%</t>
   </si>
   <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
   </si>
   <si>
     <t>8,22%</t>
   </si>
   <si>
-    <t>9,18%</t>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
   </si>
   <si>
     <t>13,92%</t>
   </si>
   <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
   </si>
   <si>
     <t>11,13%</t>
   </si>
   <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
   </si>
   <si>
     <t>91,78%</t>
   </si>
   <si>
-    <t>90,82%</t>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
   </si>
   <si>
     <t>86,08%</t>
   </si>
   <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
   </si>
   <si>
     <t>88,87%</t>
   </si>
   <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
   </si>
   <si>
     <t>Población con diagnóstico de dolor de espalda en 2023 (Tasa respuesta: 99,91%)</t>
@@ -1449,7 +1437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D56372-3B3B-4639-B50B-9491F8D7BDDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B2B340-BD2C-4E87-AE2F-83EE6861ADE1}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1878,7 +1866,7 @@
         <v>1445</v>
       </c>
       <c r="D10" s="7">
-        <v>1490238</v>
+        <v>1490239</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>49</v>
@@ -1929,7 +1917,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -2051,13 +2039,13 @@
         <v>49041</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>107</v>
@@ -2066,13 +2054,13 @@
         <v>109741</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2087,13 +2075,13 @@
         <v>490708</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>405</v>
@@ -2102,13 +2090,13 @@
         <v>427371</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>872</v>
@@ -2117,13 +2105,13 @@
         <v>918079</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,7 +2215,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2239,16 +2227,16 @@
         <v>538</v>
       </c>
       <c r="D17" s="7">
-        <v>530249</v>
+        <v>530248</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>638</v>
@@ -2257,13 +2245,13 @@
         <v>650219</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>1176</v>
@@ -2272,13 +2260,13 @@
         <v>1180467</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2293,13 +2281,13 @@
         <v>2746295</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H18" s="7">
         <v>2659</v>
@@ -2308,13 +2296,13 @@
         <v>2728979</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M18" s="7">
         <v>5335</v>
@@ -2323,13 +2311,13 @@
         <v>5475274</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2341,7 +2329,7 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -2385,7 +2373,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2404,7 +2392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B84DF61-EE33-4302-A993-B410D24D2358}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E758238-D085-4F60-A2FE-696F12896C1B}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2421,7 +2409,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2534,7 +2522,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2564,7 +2552,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2579,13 +2567,13 @@
         <v>153014</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H5" s="7">
         <v>337</v>
@@ -2594,13 +2582,13 @@
         <v>360566</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M5" s="7">
         <v>481</v>
@@ -2609,13 +2597,13 @@
         <v>513580</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,13 +2618,13 @@
         <v>821629</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="H6" s="7">
         <v>910</v>
@@ -2645,13 +2633,13 @@
         <v>977230</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M6" s="7">
         <v>1674</v>
@@ -2660,13 +2648,13 @@
         <v>1798860</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2740,7 +2728,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2785,13 +2773,13 @@
         <v>132586</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H9" s="7">
         <v>212</v>
@@ -2800,13 +2788,13 @@
         <v>233855</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M9" s="7">
         <v>335</v>
@@ -2815,13 +2803,13 @@
         <v>366441</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2836,13 +2824,13 @@
         <v>1831371</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H10" s="7">
         <v>1421</v>
@@ -2851,28 +2839,28 @@
         <v>1520737</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="M10" s="7">
         <v>3154</v>
       </c>
       <c r="N10" s="7">
-        <v>3352108</v>
+        <v>3352109</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2914,7 +2902,7 @@
         <v>3489</v>
       </c>
       <c r="N11" s="7">
-        <v>3718549</v>
+        <v>3718550</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -2946,7 +2934,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2961,7 +2949,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2976,7 +2964,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2991,13 +2979,13 @@
         <v>22627</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -3006,13 +2994,13 @@
         <v>51125</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>64</v>
@@ -3021,13 +3009,13 @@
         <v>73752</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,13 +3030,13 @@
         <v>458554</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H14" s="7">
         <v>368</v>
@@ -3057,13 +3045,13 @@
         <v>407506</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M14" s="7">
         <v>786</v>
@@ -3072,13 +3060,13 @@
         <v>866060</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3182,7 +3170,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3185,13 @@
         <v>308227</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H17" s="7">
         <v>593</v>
@@ -3212,13 +3200,13 @@
         <v>645546</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M17" s="7">
         <v>880</v>
@@ -3227,13 +3215,13 @@
         <v>953773</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,13 +3236,13 @@
         <v>3111555</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H18" s="7">
         <v>2699</v>
@@ -3263,28 +3251,28 @@
         <v>2905474</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="M18" s="7">
         <v>5614</v>
       </c>
       <c r="N18" s="7">
-        <v>6017029</v>
+        <v>6017028</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,7 +3314,7 @@
         <v>6494</v>
       </c>
       <c r="N19" s="7">
-        <v>6970802</v>
+        <v>6970801</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -3340,7 +3328,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3359,7 +3347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B16DD9B-E83C-441A-88EC-116FCA647D58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D4E4DB-0A98-438E-AC71-3E1DD904A126}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3376,7 +3364,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3489,7 +3477,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3504,7 +3492,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3534,13 +3522,13 @@
         <v>99912</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>197</v>
@@ -3549,13 +3537,13 @@
         <v>225642</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="M5" s="7">
         <v>299</v>
@@ -3564,13 +3552,13 @@
         <v>325555</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,13 +3573,13 @@
         <v>654435</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H6" s="7">
         <v>695</v>
@@ -3600,13 +3588,13 @@
         <v>769018</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M6" s="7">
         <v>1355</v>
@@ -3615,13 +3603,13 @@
         <v>1423452</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3695,7 +3683,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3710,7 +3698,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3725,7 +3713,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,13 +3728,13 @@
         <v>142977</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H9" s="7">
         <v>208</v>
@@ -3755,13 +3743,13 @@
         <v>226667</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M9" s="7">
         <v>340</v>
@@ -3770,13 +3758,13 @@
         <v>369644</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,13 +3779,13 @@
         <v>1933408</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H10" s="7">
         <v>1700</v>
@@ -3806,13 +3794,13 @@
         <v>1761633</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="M10" s="7">
         <v>3520</v>
@@ -3821,13 +3809,13 @@
         <v>3695041</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,7 +3889,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3931,7 +3919,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,13 +3934,13 @@
         <v>34600</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -3961,13 +3949,13 @@
         <v>39392</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -3976,13 +3964,13 @@
         <v>73991</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3997,13 +3985,13 @@
         <v>512286</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>489</v>
@@ -4012,13 +4000,13 @@
         <v>509748</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>961</v>
@@ -4027,13 +4015,13 @@
         <v>1022035</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4137,7 +4125,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,13 +4140,13 @@
         <v>277488</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>145</v>
+        <v>232</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H17" s="7">
         <v>442</v>
@@ -4167,13 +4155,13 @@
         <v>491701</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="M17" s="7">
         <v>705</v>
@@ -4182,13 +4170,13 @@
         <v>769190</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,13 +4191,13 @@
         <v>3100130</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>153</v>
+        <v>242</v>
       </c>
       <c r="H18" s="7">
         <v>2884</v>
@@ -4218,13 +4206,13 @@
         <v>3040399</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M18" s="7">
         <v>5836</v>
@@ -4233,13 +4221,13 @@
         <v>6140528</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,7 +4283,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -4314,7 +4302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D68AEF71-7FDA-439C-8E47-0AA8AD2972FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F40A055-DD5D-4991-A533-03E0117323AF}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4331,7 +4319,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4444,7 +4432,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4453,13 +4441,13 @@
         <v>2762</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4474,7 +4462,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4489,13 +4477,13 @@
         <v>181929</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H5" s="7">
         <v>759</v>
@@ -4504,13 +4492,13 @@
         <v>432855</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M5" s="7">
         <v>1004</v>
@@ -4519,13 +4507,13 @@
         <v>614784</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4540,13 +4528,13 @@
         <v>358634</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H6" s="7">
         <v>667</v>
@@ -4555,13 +4543,13 @@
         <v>400336</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M6" s="7">
         <v>1112</v>
@@ -4570,13 +4558,13 @@
         <v>758970</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,7 +4638,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4659,7 +4647,7 @@
         <v>718</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
@@ -4674,7 +4662,7 @@
         <v>718</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
@@ -4695,13 +4683,13 @@
         <v>363774</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H9" s="7">
         <v>823</v>
@@ -4710,13 +4698,13 @@
         <v>653937</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="M9" s="7">
         <v>1214</v>
@@ -4725,13 +4713,13 @@
         <v>1017711</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4746,13 +4734,13 @@
         <v>1794464</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H10" s="7">
         <v>2095</v>
@@ -4761,13 +4749,13 @@
         <v>1593453</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="M10" s="7">
         <v>3693</v>
@@ -4776,13 +4764,13 @@
         <v>3387918</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,7 +4844,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4871,7 +4859,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4886,7 +4874,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,13 +4889,13 @@
         <v>88180</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H13" s="7">
         <v>234</v>
@@ -4916,13 +4904,13 @@
         <v>152696</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M13" s="7">
         <v>331</v>
@@ -4931,13 +4919,13 @@
         <v>240876</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,13 +4940,13 @@
         <v>583719</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H14" s="7">
         <v>769</v>
@@ -4967,13 +4955,13 @@
         <v>561031</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M14" s="7">
         <v>1352</v>
@@ -4982,13 +4970,13 @@
         <v>1144750</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,13 +5059,13 @@
         <v>3480</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5086,13 +5074,13 @@
         <v>3480</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,13 +5095,13 @@
         <v>633883</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H17" s="7">
         <v>1816</v>
@@ -5122,13 +5110,13 @@
         <v>1239489</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M17" s="7">
         <v>2549</v>
@@ -5137,13 +5125,13 @@
         <v>1873372</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,13 +5146,13 @@
         <v>2736817</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H18" s="7">
         <v>3531</v>
@@ -5173,13 +5161,13 @@
         <v>2554820</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M18" s="7">
         <v>6157</v>
@@ -5188,13 +5176,13 @@
         <v>5291637</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,7 +5238,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1413-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1413-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACB4D96D-20A8-4E4D-8A0B-39B485AA3810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{057AC95A-B69B-4509-9D9C-7E93DBAD5827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B97DE8AE-6D2F-4BD9-B77D-E540170E7546}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{31E00AB7-B30B-4E7C-9A69-77BBEC495306}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
   <si>
     <t>Población con diagnóstico de dolor de espalda en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -728,220 +728,202 @@
     <t>Población con diagnóstico de dolor de espalda en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
   <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0478F8B2-DEC7-4BBC-BC65-A33D860D0141}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A7026A-BEEB-4BB1-9B69-8C6CDAF1A237}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1555,7 +1537,7 @@
         <v>1675</v>
       </c>
       <c r="N5" s="7">
-        <v>1693403</v>
+        <v>1693402</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1606,7 +1588,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1680,7 +1662,7 @@
         <v>1445</v>
       </c>
       <c r="D8" s="7">
-        <v>1490238</v>
+        <v>1490239</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1731,7 +1713,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1939,7 +1921,7 @@
         <v>538</v>
       </c>
       <c r="D13" s="7">
-        <v>530249</v>
+        <v>530248</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -2005,7 +1987,7 @@
         <v>2659</v>
       </c>
       <c r="I14" s="7">
-        <v>2728979</v>
+        <v>2728978</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -2020,7 +2002,7 @@
         <v>5335</v>
       </c>
       <c r="N14" s="7">
-        <v>5475273</v>
+        <v>5475274</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2041,7 +2023,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2056,7 +2038,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2071,7 +2053,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2104,7 +2086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F570B75-6D6D-4B68-ADD3-5F659016349F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955E0F55-26A6-4800-9A27-DA659320BCE9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2291,7 +2273,7 @@
         <v>910</v>
       </c>
       <c r="I5" s="7">
-        <v>977230</v>
+        <v>977231</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>99</v>
@@ -2342,7 +2324,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2461,7 +2443,7 @@
         <v>3154</v>
       </c>
       <c r="N8" s="7">
-        <v>3352109</v>
+        <v>3352108</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>120</v>
@@ -2512,7 +2494,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2616,7 +2598,7 @@
         <v>786</v>
       </c>
       <c r="N11" s="7">
-        <v>866060</v>
+        <v>866061</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>138</v>
@@ -2667,7 +2649,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2855,7 +2837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C63AC7-5673-41F5-82EF-EFA4BBA9992A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D8990B-993E-4FFA-9180-ACD69D7E9FDD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3367,7 +3349,7 @@
         <v>961</v>
       </c>
       <c r="N11" s="7">
-        <v>1022035</v>
+        <v>1022036</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>114</v>
@@ -3418,7 +3400,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3606,7 +3588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0777F9-9909-4452-AA67-1276C5667D63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4C5D76-D39A-4E5A-8126-F23C952D6B15}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3727,7 +3709,7 @@
         <v>245</v>
       </c>
       <c r="D4" s="7">
-        <v>181929</v>
+        <v>168494</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>229</v>
@@ -3742,7 +3724,7 @@
         <v>759</v>
       </c>
       <c r="I4" s="7">
-        <v>432855</v>
+        <v>387639</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>232</v>
@@ -3757,7 +3739,7 @@
         <v>1004</v>
       </c>
       <c r="N4" s="7">
-        <v>614784</v>
+        <v>556133</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>235</v>
@@ -3778,7 +3760,7 @@
         <v>445</v>
       </c>
       <c r="D5" s="7">
-        <v>358634</v>
+        <v>345448</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>238</v>
@@ -3793,7 +3775,7 @@
         <v>667</v>
       </c>
       <c r="I5" s="7">
-        <v>400336</v>
+        <v>365529</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>241</v>
@@ -3808,7 +3790,7 @@
         <v>1112</v>
       </c>
       <c r="N5" s="7">
-        <v>758970</v>
+        <v>710977</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>244</v>
@@ -3829,7 +3811,7 @@
         <v>690</v>
       </c>
       <c r="D6" s="7">
-        <v>540563</v>
+        <v>513942</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3844,7 +3826,7 @@
         <v>1426</v>
       </c>
       <c r="I6" s="7">
-        <v>833191</v>
+        <v>753168</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3859,7 +3841,7 @@
         <v>2116</v>
       </c>
       <c r="N6" s="7">
-        <v>1373754</v>
+        <v>1267110</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3882,46 +3864,46 @@
         <v>391</v>
       </c>
       <c r="D7" s="7">
-        <v>363774</v>
+        <v>345649</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>247</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H7" s="7">
         <v>823</v>
       </c>
       <c r="I7" s="7">
-        <v>653937</v>
+        <v>703288</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M7" s="7">
         <v>1214</v>
       </c>
       <c r="N7" s="7">
-        <v>1017711</v>
+        <v>1048937</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,46 +3915,46 @@
         <v>1598</v>
       </c>
       <c r="D8" s="7">
-        <v>1794464</v>
+        <v>1940939</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>257</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>258</v>
+        <v>139</v>
       </c>
       <c r="H8" s="7">
         <v>2095</v>
       </c>
       <c r="I8" s="7">
-        <v>1593453</v>
+        <v>1532543</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>3693</v>
       </c>
       <c r="N8" s="7">
-        <v>3387918</v>
+        <v>3473482</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,7 +3966,7 @@
         <v>1989</v>
       </c>
       <c r="D9" s="7">
-        <v>2158238</v>
+        <v>2286588</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3999,7 +3981,7 @@
         <v>2918</v>
       </c>
       <c r="I9" s="7">
-        <v>2247390</v>
+        <v>2235831</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4014,7 +3996,7 @@
         <v>4907</v>
       </c>
       <c r="N9" s="7">
-        <v>4405629</v>
+        <v>4522419</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4037,46 +4019,46 @@
         <v>97</v>
       </c>
       <c r="D10" s="7">
-        <v>88180</v>
+        <v>83914</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H10" s="7">
         <v>234</v>
       </c>
       <c r="I10" s="7">
-        <v>152696</v>
+        <v>140926</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>269</v>
+        <v>164</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M10" s="7">
         <v>331</v>
       </c>
       <c r="N10" s="7">
-        <v>240876</v>
+        <v>224840</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,46 +4070,46 @@
         <v>583</v>
       </c>
       <c r="D11" s="7">
-        <v>583719</v>
+        <v>561596</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H11" s="7">
         <v>769</v>
       </c>
       <c r="I11" s="7">
-        <v>561031</v>
+        <v>519377</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>279</v>
+        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>1352</v>
       </c>
       <c r="N11" s="7">
-        <v>1144750</v>
+        <v>1080973</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,7 +4121,7 @@
         <v>680</v>
       </c>
       <c r="D12" s="7">
-        <v>671899</v>
+        <v>645510</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4154,7 +4136,7 @@
         <v>1003</v>
       </c>
       <c r="I12" s="7">
-        <v>713727</v>
+        <v>660303</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4169,7 +4151,7 @@
         <v>1683</v>
       </c>
       <c r="N12" s="7">
-        <v>1385626</v>
+        <v>1305813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4192,46 +4174,46 @@
         <v>733</v>
       </c>
       <c r="D13" s="7">
-        <v>633883</v>
+        <v>598057</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>284</v>
+        <v>34</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H13" s="7">
         <v>1816</v>
       </c>
       <c r="I13" s="7">
-        <v>1239489</v>
+        <v>1231853</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="M13" s="7">
         <v>2549</v>
       </c>
       <c r="N13" s="7">
-        <v>1873371</v>
+        <v>1829910</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,46 +4225,46 @@
         <v>2626</v>
       </c>
       <c r="D14" s="7">
-        <v>2736817</v>
+        <v>2847983</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>294</v>
+        <v>42</v>
       </c>
       <c r="H14" s="7">
         <v>3531</v>
       </c>
       <c r="I14" s="7">
-        <v>2554819</v>
+        <v>2417449</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="M14" s="7">
         <v>6157</v>
       </c>
       <c r="N14" s="7">
-        <v>5291637</v>
+        <v>5265432</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,7 +4276,7 @@
         <v>3359</v>
       </c>
       <c r="D15" s="7">
-        <v>3370700</v>
+        <v>3446040</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4309,7 +4291,7 @@
         <v>5347</v>
       </c>
       <c r="I15" s="7">
-        <v>3794308</v>
+        <v>3649302</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4324,7 +4306,7 @@
         <v>8706</v>
       </c>
       <c r="N15" s="7">
-        <v>7165008</v>
+        <v>7095342</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
